--- a/biology/Zoologie/Antigonis_pharsalia/Antigonis_pharsalia.xlsx
+++ b/biology/Zoologie/Antigonis_pharsalia/Antigonis_pharsalia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antigonis pharsalia est une espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Biblidinae. C'est la seule espèce du genre monotypique Antigonis.
 </t>
@@ -511,11 +523,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Antigonis pharsalia a été décrite par le naturaliste britannique William Chapman Hewitson en 1852 sous le nom initial de Cybdelis pharsalia[1].
-Elle est l'espèce type et l'unique espèce du genre Antigonis, décrit par l'entomologiste autrichien Cajetan von Felder en 1861, et qui a pour synonyme Lincoya Kirby, 1871[1].
-Antigonis pharsalia a deux sous-espèces[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'espèce Antigonis pharsalia a été décrite par le naturaliste britannique William Chapman Hewitson en 1852 sous le nom initial de Cybdelis pharsalia.
+Elle est l'espèce type et l'unique espèce du genre Antigonis, décrit par l'entomologiste autrichien Cajetan von Felder en 1861, et qui a pour synonyme Lincoya Kirby, 1871.
+Antigonis pharsalia a deux sous-espèces :
 Antigonis pharsalia pharsalia (Hewitson, 1852) — présente au Brésil et en Guyane.
 Antigonis pharsalia felderi Bates, 1864 — présente au Brésil.</t>
         </is>
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -572,6 +588,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -597,9 +615,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antigonis pharsalia est présente au Brésil et en Guyane[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antigonis pharsalia est présente au Brésil et en Guyane.
 </t>
         </is>
       </c>
@@ -628,7 +648,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier.[réf. nécessaire]
 </t>
